--- a/src/test/resources/contactInformationForATTLogin.xlsx
+++ b/src/test/resources/contactInformationForATTLogin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Ste 700</t>
+  </si>
+  <si>
+    <t>dnc</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,73 +436,79 @@
     <col min="16" max="16" width="14.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>94404</v>
       </c>
     </row>
